--- a/data/trans_orig/P79A7_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P79A7_2023-Estudios-trans_orig.xlsx
@@ -890,7 +890,7 @@
         <v>5642</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1918</v>
+        <v>1890</v>
       </c>
       <c r="F7" s="5" t="n">
         <v>8721</v>
@@ -899,7 +899,7 @@
         <v>0.6469554012341721</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2199388438216328</v>
+        <v>0.2166955166075724</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>1</v>
@@ -924,7 +924,7 @@
         <v>10913</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>5943</v>
+        <v>6163</v>
       </c>
       <c r="T7" s="5" t="n">
         <v>13992</v>
@@ -933,7 +933,7 @@
         <v>0.7799531043332537</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.4247085656229371</v>
+        <v>0.4404827532396713</v>
       </c>
       <c r="W7" s="6" t="n">
         <v>1</v>
@@ -956,7 +956,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>6803</v>
+        <v>6831</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.3530445987658278</v>
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.780061156178367</v>
+        <v>0.7833044833924275</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>0</v>
@@ -990,7 +990,7 @@
         <v>0</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>8049</v>
+        <v>7829</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2200468956667462</v>
@@ -999,7 +999,7 @@
         <v>0</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.575291434377063</v>
+        <v>0.5595172467603277</v>
       </c>
     </row>
     <row r="9">
@@ -1260,16 +1260,16 @@
         <v>10147</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>6077</v>
+        <v>5152</v>
       </c>
       <c r="F13" s="5" t="n">
         <v>13226</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.7672033953803613</v>
+        <v>0.7672033953803614</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.4594948975662281</v>
+        <v>0.3895267782381822</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>1</v>
@@ -1294,7 +1294,7 @@
         <v>17477</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>11845</v>
+        <v>12137</v>
       </c>
       <c r="T13" s="5" t="n">
         <v>20556</v>
@@ -1303,7 +1303,7 @@
         <v>0.8502132202083884</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.5762388957829572</v>
+        <v>0.5904142209495989</v>
       </c>
       <c r="W13" s="6" t="n">
         <v>1</v>
@@ -1326,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>7149</v>
+        <v>8074</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2327966046196386</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5405051024337717</v>
+        <v>0.6104732217618178</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>0</v>
@@ -1360,7 +1360,7 @@
         <v>0</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>8711</v>
+        <v>8419</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1497867797916115</v>
@@ -1369,7 +1369,7 @@
         <v>0</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4237611042170446</v>
+        <v>0.4095857790504011</v>
       </c>
     </row>
     <row r="15">
